--- a/docss/trend/norway/E_ataxy.xlsx
+++ b/docss/trend/norway/E_ataxy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\norway\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\norway\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="B1:D16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,13 +1720,13 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>0.13555918354541063</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="C2" s="9">
-        <v>0.11484041623771191</v>
+        <v>0.115</v>
       </c>
       <c r="D2" s="9">
-        <v>3.860940970480442E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,13 +1734,13 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>6.590816006064415E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="9">
-        <v>3.3990096300840378E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,10 +1748,10 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>3.1267914921045303E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C4" s="9">
-        <v>4.4650543481111526E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>6.1777439899742603E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C5" s="9">
-        <v>3.2461736351251602E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>4.996089544147253E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C6" s="9">
-        <v>3.9497591555118561E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>5.729900486767292E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1790,13 +1790,13 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>4.5448914170265198E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>9.2339441180229187E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,13 +1804,13 @@
         <v>2006</v>
       </c>
       <c r="B8" s="9">
-        <v>7.1150174364447594E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C8" s="9">
-        <v>4.6180311590433121E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D8" s="9">
-        <v>5.0980743020772934E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1818,13 +1818,13 @@
         <v>2007</v>
       </c>
       <c r="B9" s="9">
-        <v>6.4412917941808701E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>4.2088873684406281E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,13 +1832,13 @@
         <v>2008</v>
       </c>
       <c r="B10" s="9">
-        <v>6.1850724741816521E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
       </c>
       <c r="D10" s="9">
-        <v>7.4403837323188782E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,13 +1846,13 @@
         <v>2009</v>
       </c>
       <c r="B11" s="9">
-        <v>8.16330686211586E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C11" s="9">
         <v>0</v>
       </c>
       <c r="D11" s="9">
-        <v>7.6677560806274414E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,13 +1860,13 @@
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>5.5459596216678619E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C12" s="9">
-        <v>3.9690937846899033E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D12" s="9">
-        <v>6.3525012694299221E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,13 +1874,13 @@
         <v>2011</v>
       </c>
       <c r="B13" s="9">
-        <v>1.6811173409223557E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
       </c>
       <c r="D13" s="9">
-        <v>3.3290334045886993E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="9">
-        <v>3.6886236630380154E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
